--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.70</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.76</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.3</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.76</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1951,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.3</v>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.76</v>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1935,14 +2022,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1951,14 +2060,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -1967,13 +2214,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.76</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1887,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2019,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601222-林洋能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.76</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -616,7 +633,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015575</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015574</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安添瑞6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +2451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2168,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,136 +3111,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>